--- a/zone.xlsx
+++ b/zone.xlsx
@@ -13,15 +13,35 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>7406104-B1-10010-5</t>
+  </si>
+  <si>
+    <t>7406104-B1-10011-2</t>
+  </si>
+  <si>
+    <t>7406104-B1-10012-2</t>
+  </si>
+  <si>
+    <t>7406104-B1-10013-2</t>
+  </si>
+  <si>
+    <t>7406104-B1-10014-2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,6 +56,86 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9.8"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -44,68 +144,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,24 +161,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,38 +170,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,85 +222,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,97 +390,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,21 +413,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -409,15 +427,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,20 +457,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,6 +493,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -488,151 +521,160 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -956,84 +998,298 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
+    <col min="1" max="1" width="25.0909090909091" customWidth="1"/>
     <col min="14" max="14" width="8.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1104</v>
+      </c>
+      <c r="C1">
+        <v>1300</v>
+      </c>
+      <c r="D1">
+        <v>450</v>
+      </c>
+      <c r="E1">
+        <v>450</v>
+      </c>
+      <c r="F1">
+        <v>1280</v>
+      </c>
+      <c r="G1">
+        <v>900</v>
+      </c>
+      <c r="H1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1104</v>
+      </c>
+      <c r="C3">
+        <v>1300</v>
+      </c>
+      <c r="D3">
+        <v>450</v>
+      </c>
+      <c r="E3">
+        <v>450</v>
+      </c>
+      <c r="F3">
+        <v>1280</v>
+      </c>
+      <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1104</v>
+      </c>
+      <c r="C5">
+        <v>1300</v>
+      </c>
+      <c r="D5">
+        <v>450</v>
+      </c>
+      <c r="E5">
+        <v>450</v>
+      </c>
+      <c r="F5">
+        <v>1280</v>
+      </c>
+      <c r="G5">
+        <v>900</v>
+      </c>
+      <c r="H5">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1104</v>
+      </c>
+      <c r="C7">
+        <v>1300</v>
+      </c>
+      <c r="D7">
+        <v>450</v>
+      </c>
+      <c r="E7">
+        <v>450</v>
+      </c>
+      <c r="F7">
+        <v>1280</v>
+      </c>
+      <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1104</v>
+      </c>
+      <c r="C9">
+        <v>1300</v>
+      </c>
+      <c r="D9">
+        <v>450</v>
+      </c>
+      <c r="E9">
+        <v>450</v>
+      </c>
+      <c r="F9">
+        <v>1280</v>
+      </c>
+      <c r="G9">
+        <v>900</v>
+      </c>
+      <c r="H9">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/zone.xlsx
+++ b/zone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20920" windowHeight="11330"/>
+    <workbookView windowWidth="30036" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,13 +1001,13 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="25.0909090909091" customWidth="1"/>
-    <col min="14" max="14" width="8.6" customWidth="1"/>
+    <col min="1" max="1" width="25.0925925925926" customWidth="1"/>
+    <col min="14" max="14" width="8.60185185185185" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1060,109 +1060,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>1104</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1300</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>450</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>450</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>1280</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>900</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>650</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1104</v>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3">
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>450</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>450</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1280</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>900</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>1104</v>
@@ -1210,70 +1160,104 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1104</v>
+      </c>
+      <c r="C10">
+        <v>1300</v>
+      </c>
+      <c r="D10">
+        <v>450</v>
+      </c>
+      <c r="E10">
+        <v>450</v>
+      </c>
+      <c r="F10">
+        <v>1280</v>
+      </c>
+      <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B13">
         <v>1104</v>
       </c>
-      <c r="C9">
+      <c r="C13">
         <v>1300</v>
       </c>
-      <c r="D9">
+      <c r="D13">
         <v>450</v>
       </c>
-      <c r="E9">
+      <c r="E13">
         <v>450</v>
       </c>
-      <c r="F9">
+      <c r="F13">
         <v>1280</v>
       </c>
-      <c r="G9">
+      <c r="G13">
         <v>900</v>
       </c>
-      <c r="H9">
+      <c r="H13">
         <v>650</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+    <row r="14" spans="2:8">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4"/>

--- a/zone.xlsx
+++ b/zone.xlsx
@@ -998,13 +998,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.0925925925926" customWidth="1"/>
     <col min="14" max="14" width="8.60185185185185" customWidth="1"/>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1068,45 +1068,51 @@
         <v>1104</v>
       </c>
       <c r="C4">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="D4">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="E4">
         <v>450</v>
       </c>
       <c r="F4">
+        <v>450</v>
+      </c>
+      <c r="G4">
         <v>1280</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>900</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>650</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
     </row>

--- a/zone.xlsx
+++ b/zone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30036" windowHeight="14340"/>
+    <workbookView windowWidth="30048" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,21 +14,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>7406104-B1-10010-5</t>
+    <t>5407055-B1-02002</t>
   </si>
   <si>
-    <t>7406104-B1-10011-2</t>
+    <t>5407055-B1-02003</t>
   </si>
   <si>
-    <t>7406104-B1-10012-2</t>
+    <t>5407055-B1-02004</t>
   </si>
   <si>
-    <t>7406104-B1-10013-2</t>
+    <t>5407055-B1-02005</t>
   </si>
   <si>
-    <t>7406104-B1-10014-2</t>
+    <t>5407055-B1-02006</t>
+  </si>
+  <si>
+    <t>5407055-B1-02007</t>
+  </si>
+  <si>
+    <t>5407055-B1-02008</t>
+  </si>
+  <si>
+    <t>5407055-B1-02009</t>
+  </si>
+  <si>
+    <t>5407055-B1-02010</t>
+  </si>
+  <si>
+    <t>5407055-B1-02011</t>
+  </si>
+  <si>
+    <t>5407055-B1-02012</t>
+  </si>
+  <si>
+    <t>5407055-B1-02013</t>
+  </si>
+  <si>
+    <t>5407055-B1-02014</t>
+  </si>
+  <si>
+    <t>5407055-B1-02015</t>
+  </si>
+  <si>
+    <t>5407055-B1-02016</t>
+  </si>
+  <si>
+    <t>5407055-B1-02017</t>
+  </si>
+  <si>
+    <t>5407055-B1-02018</t>
+  </si>
+  <si>
+    <t>5407055-B1-02019</t>
+  </si>
+  <si>
+    <t>5407055-B1-02020</t>
+  </si>
+  <si>
+    <t>5407055-B1-02021</t>
+  </si>
+  <si>
+    <t>5407055-B1-02022</t>
+  </si>
+  <si>
+    <t>5407055-B1-02023</t>
+  </si>
+  <si>
+    <t>5407055-B1-02025</t>
+  </si>
+  <si>
+    <t>5407055-B1-02027</t>
+  </si>
+  <si>
+    <t>5407055-B1-02029</t>
   </si>
 </sst>
 </file>
@@ -41,7 +101,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,20 +110,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9.8"/>
-      <color rgb="FF6A8759"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -521,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -533,152 +581,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -998,10 +1037,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
@@ -1010,276 +1049,3119 @@
     <col min="14" max="14" width="8.60185185185185" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1104</v>
-      </c>
-      <c r="C1">
-        <v>1300</v>
-      </c>
-      <c r="D1">
-        <v>450</v>
-      </c>
-      <c r="E1">
-        <v>450</v>
-      </c>
-      <c r="F1">
-        <v>1280</v>
-      </c>
-      <c r="G1">
-        <v>900</v>
-      </c>
-      <c r="H1">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="B1" s="2">
+        <v>1615</v>
+      </c>
+      <c r="C1" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D1" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E1" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F1" s="2">
+        <v>683.6</v>
+      </c>
+      <c r="G1" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="H1" s="2">
+        <v>1047.5</v>
+      </c>
+      <c r="I1" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="J1" s="2">
+        <v>1240.1</v>
+      </c>
+      <c r="K1" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="L1" s="2">
+        <v>1065</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="2"/>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1104</v>
-      </c>
-      <c r="C4">
-        <v>900</v>
-      </c>
-      <c r="D4">
-        <v>400</v>
-      </c>
-      <c r="E4">
-        <v>450</v>
-      </c>
-      <c r="F4">
-        <v>450</v>
-      </c>
-      <c r="G4">
-        <v>1280</v>
-      </c>
-      <c r="H4">
-        <v>900</v>
-      </c>
-      <c r="I4">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1555</v>
+      </c>
+      <c r="C4" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F4" s="2">
+        <v>683.6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1117.5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1233.1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="L4" s="2">
+        <v>995</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="2"/>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>1104</v>
-      </c>
-      <c r="C7">
-        <v>1300</v>
-      </c>
-      <c r="D7">
-        <v>450</v>
-      </c>
-      <c r="E7">
-        <v>450</v>
-      </c>
-      <c r="F7">
-        <v>1280</v>
-      </c>
-      <c r="G7">
-        <v>900</v>
-      </c>
-      <c r="H7">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="B7" s="2">
+        <v>1495</v>
+      </c>
+      <c r="C7" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4063.6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1187.6</v>
+      </c>
+      <c r="I7" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1226.1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="L7" s="2">
+        <v>925</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="2"/>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
-        <v>1104</v>
-      </c>
-      <c r="C10">
-        <v>1300</v>
-      </c>
-      <c r="D10">
-        <v>450</v>
-      </c>
-      <c r="E10">
-        <v>450</v>
-      </c>
-      <c r="F10">
-        <v>1280</v>
-      </c>
-      <c r="G10">
-        <v>900</v>
-      </c>
-      <c r="H10">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="B10" s="2">
+        <v>1435</v>
+      </c>
+      <c r="C10" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4063.6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1257.6</v>
+      </c>
+      <c r="I10" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1219.1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="L10" s="2">
+        <v>855</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="2"/>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13">
-        <v>1104</v>
-      </c>
-      <c r="C13">
-        <v>1300</v>
-      </c>
-      <c r="D13">
-        <v>450</v>
-      </c>
-      <c r="E13">
-        <v>450</v>
-      </c>
-      <c r="F13">
-        <v>1280</v>
-      </c>
-      <c r="G13">
-        <v>900</v>
-      </c>
-      <c r="H13">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="B13" s="2">
+        <v>1375</v>
+      </c>
+      <c r="C13" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E13" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7303.6</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1327.6</v>
+      </c>
+      <c r="I13" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1212.1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="L13" s="2">
+        <v>785</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1315</v>
+      </c>
+      <c r="C16" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D16" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E16" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F16" s="2">
+        <v>7303.6</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1397.6</v>
+      </c>
+      <c r="I16" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1205.1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="L16" s="2">
+        <v>715</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>775</v>
+      </c>
+      <c r="C19" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D19" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E19" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F19" s="2">
+        <v>6185.1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="H19" s="2">
+        <v>142.1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>840.7</v>
+      </c>
+      <c r="K19" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>142.1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="N19" s="2">
+        <v>8317.4</v>
+      </c>
+      <c r="O19" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1467.7</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1198.1</v>
+      </c>
+      <c r="S19" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="T19" s="2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>1</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <v>715</v>
+      </c>
+      <c r="C22" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D22" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E22" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F22" s="2">
+        <v>6185.1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="H22" s="2">
+        <v>142.1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>840.7</v>
+      </c>
+      <c r="K22" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>142.1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="N22" s="2">
+        <v>8317.4</v>
+      </c>
+      <c r="O22" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1537.7</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1191.1</v>
+      </c>
+      <c r="S22" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="T22" s="2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>1</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
+        <v>1</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2">
+        <v>655</v>
+      </c>
+      <c r="C25" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D25" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E25" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5885.1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="H25" s="2">
+        <v>142.1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>840.7</v>
+      </c>
+      <c r="K25" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>142.1</v>
+      </c>
+      <c r="M25" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="N25" s="2">
+        <v>8317.4</v>
+      </c>
+      <c r="O25" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1607.7</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="R25" s="2">
+        <v>1184.1</v>
+      </c>
+      <c r="S25" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="T25" s="2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2">
+        <v>1</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2">
+        <v>595</v>
+      </c>
+      <c r="C28" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D28" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E28" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5885.1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="H28" s="2">
+        <v>142.1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>840.7</v>
+      </c>
+      <c r="K28" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>142.1</v>
+      </c>
+      <c r="M28" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="N28" s="2">
+        <v>8317.4</v>
+      </c>
+      <c r="O28" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1677.8</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="R28" s="2">
+        <v>1177.1</v>
+      </c>
+      <c r="S28" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="T28" s="2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>1</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2">
+        <v>1</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2">
+        <v>535</v>
+      </c>
+      <c r="C31" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D31" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E31" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F31" s="2">
+        <v>3785.1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="H31" s="2">
+        <v>142.1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>840.7</v>
+      </c>
+      <c r="K31" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="L31" s="2">
+        <v>142</v>
+      </c>
+      <c r="M31" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="N31" s="2">
+        <v>8317.4</v>
+      </c>
+      <c r="O31" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1747.8</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1170.1</v>
+      </c>
+      <c r="S31" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="T31" s="2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1</v>
+      </c>
+      <c r="R32" s="2">
+        <v>0</v>
+      </c>
+      <c r="S32" s="2">
+        <v>1</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="2">
+        <v>475</v>
+      </c>
+      <c r="C34" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D34" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E34" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3785.1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="H34" s="2">
+        <v>142.1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>840.7</v>
+      </c>
+      <c r="K34" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="L34" s="2">
+        <v>142</v>
+      </c>
+      <c r="M34" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="N34" s="2">
+        <v>8317.4</v>
+      </c>
+      <c r="O34" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1817.8</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="R34" s="2">
+        <v>1163.1</v>
+      </c>
+      <c r="S34" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="T34" s="2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2">
+        <v>1</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="3">
+        <v>415</v>
+      </c>
+      <c r="C37" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D37" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E37" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F37" s="2">
+        <v>405.1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="H37" s="2">
+        <v>142.1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>840.7</v>
+      </c>
+      <c r="K37" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="L37" s="2">
+        <v>142</v>
+      </c>
+      <c r="M37" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="N37" s="2">
+        <v>8317.4</v>
+      </c>
+      <c r="O37" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1887.8</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="R37" s="2">
+        <v>1156.1</v>
+      </c>
+      <c r="S37" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="T37" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>1</v>
+      </c>
+      <c r="R38" s="2">
+        <v>0</v>
+      </c>
+      <c r="S38" s="2">
+        <v>1</v>
+      </c>
+      <c r="T38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2">
+        <v>355</v>
+      </c>
+      <c r="C40" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D40" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E40" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F40" s="2">
+        <v>405.1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="H40" s="2">
+        <v>142.1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>840.7</v>
+      </c>
+      <c r="K40" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="L40" s="2">
+        <v>142</v>
+      </c>
+      <c r="M40" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="N40" s="2">
+        <v>8317.4</v>
+      </c>
+      <c r="O40" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="P40" s="2">
+        <v>1957.9</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="R40" s="2">
+        <v>1149</v>
+      </c>
+      <c r="S40" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="T40" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>1</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
+      <c r="S41" s="2">
+        <v>1</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1615</v>
+      </c>
+      <c r="C43" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D43" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E43" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F43" s="2">
+        <v>683.6</v>
+      </c>
+      <c r="G43" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1047.5</v>
+      </c>
+      <c r="I43" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1240.1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1065</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1555</v>
+      </c>
+      <c r="C46" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D46" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E46" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F46" s="2">
+        <v>683.6</v>
+      </c>
+      <c r="G46" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1117.5</v>
+      </c>
+      <c r="I46" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1233.1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="L46" s="2">
+        <v>995</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1495</v>
+      </c>
+      <c r="C49" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D49" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E49" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F49" s="2">
+        <v>4063.6</v>
+      </c>
+      <c r="G49" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1187.6</v>
+      </c>
+      <c r="I49" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1226.1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="L49" s="2">
+        <v>925</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>1</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1435</v>
+      </c>
+      <c r="C52" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D52" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E52" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F52" s="2">
+        <v>4063.6</v>
+      </c>
+      <c r="G52" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1257.6</v>
+      </c>
+      <c r="I52" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1219.1</v>
+      </c>
+      <c r="K52" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="L52" s="2">
+        <v>855</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1375</v>
+      </c>
+      <c r="C55" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D55" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E55" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F55" s="2">
+        <v>6723.6</v>
+      </c>
+      <c r="G55" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1327.6</v>
+      </c>
+      <c r="I55" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1212.1</v>
+      </c>
+      <c r="K55" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="L55" s="2">
+        <v>785</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>1</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1315</v>
+      </c>
+      <c r="C58" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D58" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E58" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F58" s="2">
+        <v>6723.6</v>
+      </c>
+      <c r="G58" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1397.6</v>
+      </c>
+      <c r="I58" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1205.1</v>
+      </c>
+      <c r="K58" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="L58" s="2">
+        <v>715</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="2">
+        <v>775</v>
+      </c>
+      <c r="C61" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D61" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E61" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F61" s="2">
+        <v>9286.2</v>
+      </c>
+      <c r="G61" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="H61" s="2">
+        <v>851.2</v>
+      </c>
+      <c r="I61" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="J61" s="2">
+        <v>5578.5</v>
+      </c>
+      <c r="K61" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1467.7</v>
+      </c>
+      <c r="M61" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="N61" s="2">
+        <v>1198.1</v>
+      </c>
+      <c r="O61" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="P61" s="2">
+        <v>645</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2">
+        <v>1</v>
+      </c>
+      <c r="N62" s="2">
+        <v>0</v>
+      </c>
+      <c r="O62" s="2">
+        <v>1</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="2">
+        <v>715</v>
+      </c>
+      <c r="C64" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D64" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E64" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F64" s="2">
+        <v>9286.2</v>
+      </c>
+      <c r="G64" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="H64" s="2">
+        <v>851.2</v>
+      </c>
+      <c r="I64" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="J64" s="2">
+        <v>5578.5</v>
+      </c>
+      <c r="K64" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1537.7</v>
+      </c>
+      <c r="M64" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="N64" s="2">
+        <v>1191.1</v>
+      </c>
+      <c r="O64" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="P64" s="2">
+        <v>575</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0</v>
+      </c>
+      <c r="M65" s="2">
+        <v>1</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2">
+        <v>1</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="2">
+        <v>595</v>
+      </c>
+      <c r="C67" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D67" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E67" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F67" s="2">
+        <v>8986.2</v>
+      </c>
+      <c r="G67" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="H67" s="2">
+        <v>851.2</v>
+      </c>
+      <c r="I67" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="J67" s="2">
+        <v>5578.5</v>
+      </c>
+      <c r="K67" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1677.8</v>
+      </c>
+      <c r="M67" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="N67" s="2">
+        <v>1177.1</v>
+      </c>
+      <c r="O67" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="P67" s="2">
+        <v>435</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0</v>
+      </c>
+      <c r="M68" s="2">
+        <v>1</v>
+      </c>
+      <c r="N68" s="2">
+        <v>0</v>
+      </c>
+      <c r="O68" s="2">
+        <v>1</v>
+      </c>
+      <c r="P68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="2">
+        <v>475</v>
+      </c>
+      <c r="C70" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D70" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E70" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F70" s="2">
+        <v>6886.2</v>
+      </c>
+      <c r="G70" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="H70" s="2">
+        <v>851.2</v>
+      </c>
+      <c r="I70" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="J70" s="2">
+        <v>5578.5</v>
+      </c>
+      <c r="K70" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="L70" s="2">
+        <v>1817.8</v>
+      </c>
+      <c r="M70" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="N70" s="2">
+        <v>1163.1</v>
+      </c>
+      <c r="O70" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="P70" s="2">
+        <v>295</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2">
+        <v>1</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1</v>
+      </c>
+      <c r="L71" s="2">
+        <v>0</v>
+      </c>
+      <c r="M71" s="2">
+        <v>1</v>
+      </c>
+      <c r="N71" s="2">
+        <v>0</v>
+      </c>
+      <c r="O71" s="2">
+        <v>1</v>
+      </c>
+      <c r="P71" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="2">
+        <v>355</v>
+      </c>
+      <c r="C73" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="D73" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="E73" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F73" s="2">
+        <v>3506.2</v>
+      </c>
+      <c r="G73" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="H73" s="2">
+        <v>851.2</v>
+      </c>
+      <c r="I73" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="J73" s="2">
+        <v>5578.5</v>
+      </c>
+      <c r="K73" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="L73" s="2">
+        <v>1957.9</v>
+      </c>
+      <c r="M73" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="N73" s="2">
+        <v>1149.1</v>
+      </c>
+      <c r="O73" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="P73" s="2">
+        <v>155</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2">
+        <v>1</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0</v>
+      </c>
+      <c r="M74" s="2">
+        <v>1</v>
+      </c>
+      <c r="N74" s="2">
+        <v>0</v>
+      </c>
+      <c r="O74" s="2">
+        <v>1</v>
+      </c>
+      <c r="P74" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
